--- a/golfgraph/eval.xlsx
+++ b/golfgraph/eval.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\GitHub\simgrid\golfgraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650EF5E5-583F-48DD-9D3D-E62872E5D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DBBDD1-6D79-4328-99BD-067A35F75E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="23040" windowHeight="7728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="execution time (calc2)" sheetId="1" r:id="rId1"/>
+    <sheet name="npb" sheetId="2" r:id="rId2"/>
+    <sheet name="pwa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
   <si>
     <t>nodes=256, degree=4</t>
     <phoneticPr fontId="1"/>
@@ -74,6 +76,54 @@
     <t>Torus (4*4*4*4)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>jobs=2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>turnaround time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Torus-r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Torus-c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Random-c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GolfGraph-c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>utilization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aspl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDSC-Par</t>
+  </si>
+  <si>
+    <t>NASA-iPSC</t>
+  </si>
+  <si>
+    <t>SDSC-SP2</t>
+  </si>
+  <si>
+    <t>HPC2N</t>
+  </si>
 </sst>
 </file>
 
@@ -115,8 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2536,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2953,4 +3006,444 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09982F2A-1215-4602-876F-BF8471BEAC9C}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>59.934445304</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.3060469588900001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64.762955805700003</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.1703867355300002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>65.3586683021</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.18414753808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.25511872581</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>6.3605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.24383467668100001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5.2850000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.24686358176100001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.0860000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E2438-9E4F-4984-BB6B-C84AD1DBE9FF}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" customWidth="1"/>
+    <col min="8" max="8" width="16.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.86717290131</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.101066995489</v>
+      </c>
+      <c r="D4">
+        <v>0.78205910000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.179035397</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.6619294880500002</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.4087201491500001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.3121721974299998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.70301829382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1.167058894</v>
+      </c>
+      <c r="C5">
+        <v>0.11369</v>
+      </c>
+      <c r="D5">
+        <v>0.78056496200000003</v>
+      </c>
+      <c r="E5">
+        <v>1.197854403</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.7129372722</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.4924794277700002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.2414127180399999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.68846217301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1.2133509</v>
+      </c>
+      <c r="C6">
+        <v>0.115423997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.78401756846799997</v>
+      </c>
+      <c r="E6">
+        <v>1.894479397</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.7328955052200001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.4853998906300001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.2290226425599999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.6420209894800002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.25530229369399998</v>
+      </c>
+      <c r="C15">
+        <v>3.7052512309000002E-2</v>
+      </c>
+      <c r="D15">
+        <v>7.3176052256800003E-2</v>
+      </c>
+      <c r="E15">
+        <v>8.5046393993799999E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.8145454545500002</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.8586156111899998</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3.7843137254900001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4.7884416924700002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.25605356949899999</v>
+      </c>
+      <c r="C16">
+        <v>3.7048795392199997E-2</v>
+      </c>
+      <c r="D16">
+        <v>7.3468317150500007E-2</v>
+      </c>
+      <c r="E16">
+        <v>8.5040987503500004E-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.2472727272700004</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.5655375552300002</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.1790849673200001</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4.0134158926700003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.25666257466800002</v>
+      </c>
+      <c r="C17">
+        <v>3.7594010828799998E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.31567003681E-2</v>
+      </c>
+      <c r="E17">
+        <v>8.2639023991600002E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.1987878787900001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3.3726067746699999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3.0143790849699998</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3.71104231166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/golfgraph/eval.xlsx
+++ b/golfgraph/eval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\GitHub\simgrid\golfgraph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\simgrid\golfgraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DBBDD1-6D79-4328-99BD-067A35F75E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04626D0B-FF17-4167-B606-9FFED247B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="23040" windowHeight="7728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="735" windowWidth="22350" windowHeight="15405" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="execution time (calc2)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="29">
   <si>
     <t>nodes=256, degree=4</t>
     <phoneticPr fontId="1"/>
@@ -85,22 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Torus-r</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Torus-c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Random-c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GolfGraph-c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>utilization</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -124,12 +108,114 @@
   <si>
     <t>HPC2N</t>
   </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Graph500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Avg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Torus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/R</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Torus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/C</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/C</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>GolfGraph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/C</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>jobs=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +229,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,37 +294,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -264,9 +327,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'execution time (calc2)'!$B$6:$F$6</c:f>
+              <c:f>('execution time (calc2)'!$B$6:$F$6,'execution time (calc2)'!$G$6,'execution time (calc2)'!$H$6,'execution time (calc2)'!$I$6)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FT</c:v>
                 </c:pt>
@@ -281,16 +344,25 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graph500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'execution time (calc2)'!$B$7:$F$7</c:f>
+              <c:f>'execution time (calc2)'!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -304,6 +376,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -341,9 +422,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'execution time (calc2)'!$B$6:$F$6</c:f>
+              <c:f>('execution time (calc2)'!$B$6:$F$6,'execution time (calc2)'!$G$6,'execution time (calc2)'!$H$6,'execution time (calc2)'!$I$6)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FT</c:v>
                 </c:pt>
@@ -358,16 +439,25 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graph500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'execution time (calc2)'!$B$8:$F$8</c:f>
+              <c:f>'execution time (calc2)'!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.27803803900692059</c:v>
                 </c:pt>
@@ -382,6 +472,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.80013347877256935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7251854882705947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57882570097565267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75358160728991563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,9 +517,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'execution time (calc2)'!$B$6:$F$6</c:f>
+              <c:f>('execution time (calc2)'!$B$6:$F$6,'execution time (calc2)'!$G$6,'execution time (calc2)'!$H$6,'execution time (calc2)'!$I$6)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FT</c:v>
                 </c:pt>
@@ -435,16 +534,25 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graph500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'execution time (calc2)'!$B$9:$F$9</c:f>
+              <c:f>'execution time (calc2)'!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.25357014954266077</c:v>
                 </c:pt>
@@ -459,6 +567,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.74341217670867177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32062602291325698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23831194515250065</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68406289609282134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,6 +606,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>Application</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43828494361657561"/>
+              <c:y val="0.87764436934369983"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -511,7 +692,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -554,6 +735,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>Relative Execution Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0667717935396054E-2"/>
+              <c:y val="0.15751830580648787"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -570,7 +815,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -598,7 +843,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2587869106019568"/>
+          <c:y val="2.6666600595630391E-2"/>
+          <c:w val="0.52912303531798366"/>
+          <c:h val="0.1062917796068443"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -612,7 +867,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -678,38 +933,9 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -742,9 +968,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'execution time (calc2)'!$B$20:$G$20</c:f>
+              <c:f>'execution time (calc2)'!$B$20:$I$20</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FT</c:v>
                 </c:pt>
@@ -761,17 +987,23 @@
                   <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LU</c:v>
+                  <c:v>MM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graph500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'execution time (calc2)'!$B$21:$G$21</c:f>
+              <c:f>'execution time (calc2)'!$B$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -788,6 +1020,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -795,7 +1033,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3DC3-400D-A316-13DDC858B724}"/>
+              <c16:uniqueId val="{00000000-FB05-4C96-B2F7-4EE2B4ED843A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -825,9 +1063,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'execution time (calc2)'!$B$20:$G$20</c:f>
+              <c:f>'execution time (calc2)'!$B$20:$I$20</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FT</c:v>
                 </c:pt>
@@ -844,17 +1082,23 @@
                   <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LU</c:v>
+                  <c:v>MM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graph500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'execution time (calc2)'!$B$22:$G$22</c:f>
+              <c:f>'execution time (calc2)'!$B$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.27258154218601754</c:v>
                 </c:pt>
@@ -871,14 +1115,20 @@
                   <c:v>0.44405766651235118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81940469467390298</c:v>
+                  <c:v>0.6263751668891856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74032040487043616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58254453024916031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3DC3-400D-A316-13DDC858B724}"/>
+              <c16:uniqueId val="{00000001-FB05-4C96-B2F7-4EE2B4ED843A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -908,9 +1158,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'execution time (calc2)'!$B$20:$G$20</c:f>
+              <c:f>'execution time (calc2)'!$B$20:$I$20</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>FT</c:v>
                 </c:pt>
@@ -927,17 +1177,23 @@
                   <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>LU</c:v>
+                  <c:v>MM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graph500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'execution time (calc2)'!$B$23:$G$23</c:f>
+              <c:f>'execution time (calc2)'!$B$23:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.24360557682031822</c:v>
                 </c:pt>
@@ -954,14 +1210,20 @@
                   <c:v>0.40044988901154993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73348456858071787</c:v>
+                  <c:v>0.40996376120541678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62741427803101768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50184576569076011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3DC3-400D-A316-13DDC858B724}"/>
+              <c16:uniqueId val="{00000002-FB05-4C96-B2F7-4EE2B4ED843A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -975,16 +1237,80 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1522960672"/>
-        <c:axId val="1522961088"/>
+        <c:axId val="1525875344"/>
+        <c:axId val="1525876176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1522960672"/>
+        <c:axId val="1525875344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>Application</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48301816188639068"/>
+              <c:y val="0.88485989125888731"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1007,7 +1333,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1022,7 +1348,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522961088"/>
+        <c:crossAx val="1525876176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1522961088"/>
+        <c:axId val="1525876176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,6 +1376,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Relative Execution Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0634269360908199E-2"/>
+              <c:y val="0.16590923311499489"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1066,7 +1460,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1081,7 +1475,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522960672"/>
+        <c:crossAx val="1525875344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1094,7 +1488,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26274270309584796"/>
+          <c:y val="2.6666666666666668E-2"/>
+          <c:w val="0.52207175157322194"/>
+          <c:h val="0.1125984251968504"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1108,7 +1512,2023 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>npb!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Torus/R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Torus/C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random/C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GolfGraph/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>npb!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>73.306046958889993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.3586683021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.762955805700003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.934445304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB05-4C96-B2F7-4EE2B4ED843A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1525875344"/>
+        <c:axId val="1525876176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1525875344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>Host Topology / Mapping</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35980743573934154"/>
+              <c:y val="0.88086739158955185"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525876176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1525876176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Average Turnaround Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3918836749614983E-2"/>
+              <c:y val="4.488069140756408E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525875344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>npb!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Torus/R</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Torus/C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random/C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GolfGraph/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>npb!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.163605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24686358176100001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24383467668100001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25511872581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB05-4C96-B2F7-4EE2B4ED843A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1525875344"/>
+        <c:axId val="1525876176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1525875344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>Host Topology / Mapping</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37093903898055142"/>
+              <c:y val="0.87952238489237489"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525876176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1525876176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Resource Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4289715552340413E-2"/>
+              <c:y val="0.12779441623310983"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525875344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pwa!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Torus/R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pwa!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SDSC-Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NASA-iPSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SDSC-SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HPC2N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pwa!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6619294880500002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40872014914999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.31217219743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.70301829382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1A9-4984-9813-78A6AF7B2355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pwa!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Torus/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pwa!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SDSC-Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NASA-iPSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SDSC-SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HPC2N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pwa!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.86717290131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.101066995489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78205910000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.894479397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1A9-4984-9813-78A6AF7B2355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pwa!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pwa!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SDSC-Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NASA-iPSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SDSC-SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HPC2N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pwa!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2133509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78056496200000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.197854403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1A9-4984-9813-78A6AF7B2355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pwa!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GolfGraph/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pwa!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SDSC-Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NASA-iPSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SDSC-SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HPC2N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pwa!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.167058894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.115423997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78401756846799997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.179035397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1A9-4984-9813-78A6AF7B2355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2002301471"/>
+        <c:axId val="2002299807"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2002301471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>Workload</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+                  <a:t> Trace</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43160027966096604"/>
+              <c:y val="0.8892710430496662"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002299807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2002299807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+                  <a:t> Turnaround Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8427112272518958E-2"/>
+              <c:y val="0.13178491223703018"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002301471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pwa!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Torus/R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pwa!$B$13:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SDSC-Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NASA-iPSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SDSC-SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HPC2N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pwa!$B$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.21454545454999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5861561118999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8431372549000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8441692470000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1A9-4984-9813-78A6AF7B2355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pwa!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Torus/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pwa!$B$13:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SDSC-Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NASA-iPSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SDSC-SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HPC2N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pwa!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25530229369399998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7052512309000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3176052256800003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5046393993799999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1A9-4984-9813-78A6AF7B2355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pwa!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pwa!$B$13:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SDSC-Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NASA-iPSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SDSC-SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HPC2N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pwa!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25605356949899999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7048795392199997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3468317150500007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5040987503500004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1A9-4984-9813-78A6AF7B2355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pwa!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GolfGraph/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pwa!$B$13:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SDSC-Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NASA-iPSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SDSC-SP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HPC2N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pwa!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25666257466800002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7594010828799998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.31567003681E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2639023991600002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1A9-4984-9813-78A6AF7B2355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2002301471"/>
+        <c:axId val="2002299807"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2002301471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Workload Trace</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43160027966096604"/>
+              <c:y val="0.8892710430496662"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002299807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2002299807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Resource Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.842701942809578E-2"/>
+              <c:y val="0.20057588239942289"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002301471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1241,6 +3661,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2247,20 +4827,2032 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>613410</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>125729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2287,16 +6879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>382905</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>499110</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2304,6 +6896,160 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94806CD8-1992-4184-99AD-E19468EBB397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B8BDC9-8082-4498-AB01-F3B4273A7A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B45FF6E-5A47-45B1-B606-7E038E711935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCC3700-99BD-468E-AC15-1FDC3878D652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381E40B0-51A7-426B-9211-86748BAC5FE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,25 +7331,1033 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -2620,10 +8374,19 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2643,10 +8406,20 @@
         <v>1.3934800000000001</v>
       </c>
       <c r="G3">
+        <v>0.14663999999999999</v>
+      </c>
+      <c r="H3">
+        <v>4.5507999999999998E-3</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(B3,C3,D3,E3,F3,G3,H3)</f>
+        <v>0.58639754285714285</v>
+      </c>
+      <c r="K3">
         <v>1.4550799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2666,10 +8439,20 @@
         <v>1.11497</v>
       </c>
       <c r="G4">
+        <v>0.1063412</v>
+      </c>
+      <c r="H4">
+        <v>2.6341200000000002E-3</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(B4,C4,D4,E4,F4,G4,H4)</f>
+        <v>0.44189840285714288</v>
+      </c>
+      <c r="K4">
         <v>3.6341199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2689,10 +8472,20 @@
         <v>1.03593</v>
       </c>
       <c r="G5">
+        <v>4.7016599999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.0845099999999999E-3</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(B5,C5,D5,E5,F5,G5,H5)</f>
+        <v>0.40113280142857144</v>
+      </c>
+      <c r="K5">
         <v>3.3766500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2709,10 +8502,19 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2721,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:G7" si="0">C3/C$3</f>
+        <f t="shared" ref="C7:J7" si="0">C3/C$3</f>
         <v>1</v>
       </c>
       <c r="D7">
@@ -2737,16 +8539,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>G3/G$3</f>
         <v>1</v>
       </c>
+      <c r="H7">
+        <f>H3/H$3</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>I3/I$3</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>K3/K$3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:G8" si="1">B4/B$3</f>
+        <f t="shared" ref="B8:J8" si="1">B4/B$3</f>
         <v>0.27803803900692059</v>
       </c>
       <c r="C8">
@@ -2766,16 +8580,28 @@
         <v>0.80013347877256935</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>G4/G$3</f>
+        <v>0.7251854882705947</v>
+      </c>
+      <c r="H8">
+        <f>H4/H$3</f>
+        <v>0.57882570097565267</v>
+      </c>
+      <c r="I8">
+        <f>I4/I$3</f>
+        <v>0.75358160728991563</v>
+      </c>
+      <c r="K8">
+        <f>K4/K$3</f>
         <v>2.49753965417709</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:G9" si="2">B5/B$3</f>
+        <f t="shared" ref="B9:J9" si="2">B5/B$3</f>
         <v>0.25357014954266077</v>
       </c>
       <c r="C9">
@@ -2795,16 +8621,28 @@
         <v>0.74341217670867177</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f>G5/G$3</f>
+        <v>0.32062602291325698</v>
+      </c>
+      <c r="H9">
+        <f>H5/H$3</f>
+        <v>0.23831194515250065</v>
+      </c>
+      <c r="I9">
+        <f>I5/I$3</f>
+        <v>0.68406289609282134</v>
+      </c>
+      <c r="K9">
+        <f>K5/K$3</f>
         <v>2.3205940566841687</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2821,10 +8659,19 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2844,10 +8691,20 @@
         <v>1.68486</v>
       </c>
       <c r="G17">
+        <v>0.10485999999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.13419E-3</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(B17:H17)</f>
+        <v>0.54055451285714284</v>
+      </c>
+      <c r="K17">
         <v>3.1341899999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2867,10 +8724,20 @@
         <v>0.74817500000000003</v>
       </c>
       <c r="G18">
+        <v>6.5681699999999996E-2</v>
+      </c>
+      <c r="H18">
+        <v>8.3966399999999995E-4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I19" si="3">AVERAGE(B18:H18)</f>
+        <v>0.31372340914285718</v>
+      </c>
+      <c r="K18">
         <v>2.5681699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2890,10 +8757,20 @@
         <v>0.67470200000000002</v>
       </c>
       <c r="G19">
+        <v>4.2988800000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>7.1160699999999995E-4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.28398528671428575</v>
+      </c>
+      <c r="K19">
         <v>2.29888</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:11">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -2910,10 +8787,19 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2922,81 +8808,117 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:G21" si="3">C17/C$17</f>
+        <f t="shared" ref="C21:I21" si="4">C17/C$17</f>
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f>G17/G$17</f>
         <v>1</v>
       </c>
+      <c r="H21">
+        <f>H17/H$17</f>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(B21:H21)</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>K17/K$17</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:G22" si="4">B18/B$17</f>
+        <f t="shared" ref="B22:I22" si="5">B18/B$17</f>
         <v>0.27258154218601754</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5574046203529931</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99227381791280023</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44479849302033864</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44405766651235118</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f>G18/G$17</f>
+        <v>0.6263751668891856</v>
+      </c>
+      <c r="H22">
+        <f>H18/H$17</f>
+        <v>0.74032040487043616</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I23" si="6">AVERAGE(B22:H22)</f>
+        <v>0.58254453024916031</v>
+      </c>
+      <c r="K22">
+        <f>K18/K$17</f>
         <v>0.81940469467390298</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:G23" si="5">B19/B$17</f>
+        <f t="shared" ref="B23:I23" si="7">B19/B$17</f>
         <v>0.24360557682031822</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.50991550779223127</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91861001165677703</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40296133531801009</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40044988901154993</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f>G19/G$17</f>
+        <v>0.40996376120541678</v>
+      </c>
+      <c r="H23">
+        <f>H19/H$17</f>
+        <v>0.62741427803101768</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>0.50184576569076011</v>
+      </c>
+      <c r="K23">
+        <f>K19/K$17</f>
         <v>0.73348456858071787</v>
       </c>
     </row>
@@ -3012,14 +8934,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09982F2A-1215-4602-876F-BF8471BEAC9C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3032,26 +8954,32 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>73.306046958889993</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
+        <v>65.3586683021</v>
+      </c>
+      <c r="C4" s="1">
         <v>59.934445304</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1">
         <v>3.3060469588900001</v>
@@ -3059,13 +8987,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>64.762955805700003</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1">
         <v>3.1703867355300002</v>
@@ -3073,13 +9001,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
+        <v>59.934445304</v>
+      </c>
+      <c r="C6" s="1">
         <v>65.3586683021</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1">
         <v>3.18414753808</v>
@@ -3087,29 +9018,35 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.163605</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15">
+        <v>0.24686358176100001</v>
+      </c>
+      <c r="C15">
         <v>0.25511872581</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I15">
         <v>6.3605</v>
@@ -3117,13 +9054,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0.24383467668100001</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1">
         <v>5.2850000000000001</v>
@@ -3131,13 +9068,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17">
+        <v>0.25511872581</v>
+      </c>
+      <c r="C17">
         <v>0.24686358176100001</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1">
         <v>5.0860000000000003</v>
@@ -3147,6 +9087,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3154,20 +9095,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E2438-9E4F-4984-BB6B-C84AD1DBE9FF}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" customWidth="1"/>
-    <col min="2" max="2" width="9.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.09765625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3175,44 +9116,56 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.6619294880500002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.40872014914999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.31217219743</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.70301829382</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>1.86717290131</v>
@@ -3224,10 +9177,13 @@
         <v>0.78205910000000001</v>
       </c>
       <c r="E4">
+        <v>1.894479397</v>
+      </c>
+      <c r="F4">
         <v>1.179035397</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1">
         <v>2.6619294880500002</v>
@@ -3244,10 +9200,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>1.167058894</v>
+        <v>1.2133509</v>
       </c>
       <c r="C5">
         <v>0.11369</v>
@@ -3259,7 +9215,7 @@
         <v>1.197854403</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1">
         <v>2.7129372722</v>
@@ -3276,10 +9232,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>1.2133509</v>
+        <v>1.167058894</v>
       </c>
       <c r="C6">
         <v>0.115423997</v>
@@ -3288,10 +9244,13 @@
         <v>0.78401756846799997</v>
       </c>
       <c r="E6">
+        <v>1.179035397</v>
+      </c>
+      <c r="F6">
         <v>1.894479397</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1">
         <v>2.7328955052200001</v>
@@ -3304,51 +9263,73 @@
       </c>
       <c r="L6" s="1">
         <v>2.6420209894800002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7">
+        <v>1.167058894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8">
+        <v>1.2133509</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
         <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.21454545454999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.5861561118999997E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.8431372549000002E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.8441692470000005E-2</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0.25530229369399998</v>
@@ -3363,7 +9344,7 @@
         <v>8.5046393993799999E-2</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1">
         <v>4.8145454545500002</v>
@@ -3380,7 +9361,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0.25605356949899999</v>
@@ -3395,7 +9376,7 @@
         <v>8.5040987503500004E-2</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1">
         <v>4.2472727272700004</v>
@@ -3412,7 +9393,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0.25666257466800002</v>
@@ -3427,7 +9408,7 @@
         <v>8.2639023991600002E-2</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1">
         <v>4.1987878787900001</v>
@@ -3445,5 +9426,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/golfgraph/eval.xlsx
+++ b/golfgraph/eval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\simgrid\golfgraph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/GitHub/simgrid/golfgraph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04626D0B-FF17-4167-B606-9FFED247B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24F0AD-F85B-E24A-A9D3-A78A54D2B3AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="735" windowWidth="22350" windowHeight="15405" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="9640" windowWidth="24600" windowHeight="16600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="execution time (calc2)" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,12 +892,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1537,12 +1532,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1912,12 +1902,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2286,12 +2271,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2923,12 +2903,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3437,8 +3412,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.842701942809578E-2"/>
-              <c:y val="0.20057588239942289"/>
+              <c:x val="1.5789360001727974E-2"/>
+              <c:y val="0.18793775622681544"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3553,12 +3528,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6850,7 +6820,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
@@ -6880,13 +6850,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>382905</xdr:colOff>
+      <xdr:colOff>382904</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -6926,8 +6896,8 @@
       <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
@@ -6957,15 +6927,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>204786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:rowOff>225424</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7004,9 +6974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7040,7 +7010,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -8343,21 +8313,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -8386,7 +8356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8419,7 +8389,7 @@
         <v>1.4550799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8452,7 +8422,7 @@
         <v>3.6341199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -8485,7 +8455,7 @@
         <v>3.3766500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -8514,7 +8484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8523,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:J7" si="0">C3/C$3</f>
+        <f t="shared" ref="C7:F7" si="0">C3/C$3</f>
         <v>1</v>
       </c>
       <c r="D7">
@@ -8539,15 +8509,15 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f>G3/G$3</f>
+        <f t="shared" ref="G7:I9" si="1">G3/G$3</f>
         <v>1</v>
       </c>
       <c r="H7">
-        <f>H3/H$3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>I3/I$3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K7">
@@ -8555,40 +8525,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:J8" si="1">B4/B$3</f>
+        <f t="shared" ref="B8:F8" si="2">B4/B$3</f>
         <v>0.27803803900692059</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0.54329702953207792</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.74261818552705394</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.7934493908985073</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.80013347877256935</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.54329702953207792</v>
-      </c>
-      <c r="D8">
+        <v>0.7251854882705947</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.74261818552705394</v>
-      </c>
-      <c r="E8">
+        <v>0.57882570097565267</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>0.7934493908985073</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.80013347877256935</v>
-      </c>
-      <c r="G8">
-        <f>G4/G$3</f>
-        <v>0.7251854882705947</v>
-      </c>
-      <c r="H8">
-        <f>H4/H$3</f>
-        <v>0.57882570097565267</v>
-      </c>
-      <c r="I8">
-        <f>I4/I$3</f>
         <v>0.75358160728991563</v>
       </c>
       <c r="K8">
@@ -8596,40 +8566,40 @@
         <v>2.49753965417709</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:J9" si="2">B5/B$3</f>
+        <f t="shared" ref="B9:F9" si="3">B5/B$3</f>
         <v>0.25357014954266077</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48735609368797139</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67987276250701212</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74423305788762795</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74341217670867177</v>
       </c>
       <c r="G9">
-        <f>G5/G$3</f>
+        <f t="shared" si="1"/>
         <v>0.32062602291325698</v>
       </c>
       <c r="H9">
-        <f>H5/H$3</f>
+        <f t="shared" si="1"/>
         <v>0.23831194515250065</v>
       </c>
       <c r="I9">
-        <f>I5/I$3</f>
+        <f t="shared" si="1"/>
         <v>0.68406289609282134</v>
       </c>
       <c r="K9">
@@ -8637,12 +8607,12 @@
         <v>2.3205940566841687</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -8671,7 +8641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -8704,7 +8674,7 @@
         <v>3.1341899999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -8730,14 +8700,14 @@
         <v>8.3966399999999995E-4</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:I19" si="3">AVERAGE(B18:H18)</f>
+        <f t="shared" ref="I18:I19" si="4">AVERAGE(B18:H18)</f>
         <v>0.31372340914285718</v>
       </c>
       <c r="K18">
         <v>2.5681699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -8763,14 +8733,14 @@
         <v>7.1160699999999995E-4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28398528671428575</v>
       </c>
       <c r="K19">
         <v>2.29888</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -8808,27 +8778,27 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:I21" si="4">C17/C$17</f>
+        <f t="shared" ref="C21:F21" si="5">C17/C$17</f>
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f>G17/G$17</f>
+        <f t="shared" ref="G21:H23" si="6">G17/G$17</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>H17/H$17</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I21">
@@ -8840,40 +8810,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:I22" si="5">B18/B$17</f>
+        <f t="shared" ref="B22:F22" si="7">B18/B$17</f>
         <v>0.27258154218601754</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.5574046203529931</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99227381791280023</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44479849302033864</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44405766651235118</v>
       </c>
       <c r="G22">
-        <f>G18/G$17</f>
+        <f t="shared" si="6"/>
         <v>0.6263751668891856</v>
       </c>
       <c r="H22">
-        <f>H18/H$17</f>
+        <f t="shared" si="6"/>
         <v>0.74032040487043616</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="6">AVERAGE(B22:H22)</f>
+        <f t="shared" ref="I22:I23" si="8">AVERAGE(B22:H22)</f>
         <v>0.58254453024916031</v>
       </c>
       <c r="K22">
@@ -8881,40 +8851,40 @@
         <v>0.81940469467390298</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:I23" si="7">B19/B$17</f>
+        <f t="shared" ref="B23:F23" si="9">B19/B$17</f>
         <v>0.24360557682031822</v>
       </c>
       <c r="C23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.50991550779223127</v>
       </c>
       <c r="D23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.91861001165677703</v>
       </c>
       <c r="E23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.40296133531801009</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.40044988901154993</v>
       </c>
       <c r="G23">
-        <f>G19/G$17</f>
+        <f t="shared" si="6"/>
         <v>0.40996376120541678</v>
       </c>
       <c r="H23">
-        <f>H19/H$17</f>
+        <f t="shared" si="6"/>
         <v>0.62741427803101768</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.50184576569076011</v>
       </c>
       <c r="K23">
@@ -8938,18 +8908,18 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8957,7 +8927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8968,7 +8938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8985,7 +8955,7 @@
         <v>3.3060469588900001</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8999,7 +8969,7 @@
         <v>3.1703867355300002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9016,7 +8986,7 @@
         <v>3.18414753808</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -9024,7 +8994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -9035,7 +9005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -9052,7 +9022,7 @@
         <v>6.3605</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -9066,7 +9036,7 @@
         <v>5.2850000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -9095,23 +9065,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E2438-9E4F-4984-BB6B-C84AD1DBE9FF}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -9143,7 +9113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -9163,7 +9133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9198,7 +9168,7 @@
         <v>2.70301829382</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -9230,7 +9200,7 @@
         <v>2.68846217301</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9265,17 +9235,17 @@
         <v>2.6420209894800002</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.167058894</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.2133509</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -9307,7 +9277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -9327,7 +9297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -9359,7 +9329,7 @@
         <v>4.7884416924700002</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -9391,7 +9361,7 @@
         <v>4.0134158926700003</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>

--- a/golfgraph/eval.xlsx
+++ b/golfgraph/eval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/GitHub/simgrid/golfgraph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\GitHub\simgrid\golfgraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24F0AD-F85B-E24A-A9D3-A78A54D2B3AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76885D44-CE92-4754-B7EE-F1217839BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="9640" windowWidth="24600" windowHeight="16600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="23040" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="execution time (calc2)" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6898,8 +6898,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8313,21 +8313,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>1.4550799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>3.6341199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>3.3766500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>2.49753965417709</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -8607,12 +8607,12 @@
         <v>2.3205940566841687</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>3.1341899999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>2.5681699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>2.29888</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0.81940469467390298</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -8904,22 +8904,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09982F2A-1215-4602-876F-BF8471BEAC9C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>3.3060469588900001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>3.1703867355300002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>3.18414753808</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>6.3605</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>5.2850000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -9065,23 +9065,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E2438-9E4F-4984-BB6B-C84AD1DBE9FF}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F8" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>2.70301829382</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>2.68846217301</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9235,17 +9235,17 @@
         <v>2.6420209894800002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7">
         <v>1.167058894</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8">
         <v>1.2133509</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>4.7884416924700002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>4.0134158926700003</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>27</v>
       </c>

--- a/golfgraph/eval.xlsx
+++ b/golfgraph/eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smallcat\Documents\GitHub\simgrid\golfgraph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76885D44-CE92-4754-B7EE-F1217839BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546A7F4C-76C9-4A3C-B14B-E7DF9F24A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="23040" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="216" windowWidth="23040" windowHeight="12096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="execution time (calc2)" sheetId="1" r:id="rId1"/>
@@ -6820,7 +6820,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
@@ -8313,7 +8313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D35" workbookViewId="0">
       <selection activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
@@ -8904,7 +8904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09982F2A-1215-4602-876F-BF8471BEAC9C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -9065,7 +9065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E2438-9E4F-4984-BB6B-C84AD1DBE9FF}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="F8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
